--- a/xgb_final_gains_chart.xlsx
+++ b/xgb_final_gains_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayuan\Documents\Training\PROJECT EXPLORATION\Furniture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mryua\MADS-CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F9EA50-E765-4576-BCBA-C1B05F866CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761D137E-54FF-4DD9-A693-3C05DCA10208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-330" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{30B06BEE-F597-427D-A09F-7602A4885B7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{30B06BEE-F597-427D-A09F-7602A4885B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,12 +169,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -218,41 +236,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,7 +612,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,509 +639,509 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>873</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>961</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>2549</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>2467</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>10.99</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>100</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>82</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <v>100</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>3.2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>438</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>812</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>872</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>2589</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>2427</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>10.81</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>89.01</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>162</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>4.96</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>97.49</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>6.3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>218</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="5">
         <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>754</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>811</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>2553</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>2345</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>10.44</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>78.2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>208</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="5">
         <v>6.37</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <v>92.53</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="5">
         <v>8.1</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="5">
         <v>164</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="5">
         <v>14.3</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>697</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>753</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>2555</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>2327</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <v>10.36</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>67.760000000000005</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>228</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="5">
         <v>6.98</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <v>86.16</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <v>8.9</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="5">
         <v>148</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="5">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>643</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>696</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>2602</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>2291</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>57.4</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>311</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>9.52</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>79.180000000000007</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>12</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <v>107</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="5">
         <v>21.8</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>588</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>642</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>2555</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>2206</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>9.82</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>47.2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>349</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <v>10.69</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>69.66</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="5">
         <v>13.7</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <v>92</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="5">
         <v>22.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>531</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>587</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>2601</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <v>2216</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="12">
         <v>9.8699999999999992</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="14">
         <v>37.380000000000003</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="12">
         <v>385</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="12">
         <v>11.79</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="14">
         <v>58.97</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="12">
         <v>14.8</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="12">
         <v>84</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="15">
         <v>21.6</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>469</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>530</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>2544</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>2149</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>9.57</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>27.51</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>395</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="5">
         <v>12.09</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <v>47.18</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="5">
         <v>15.5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="5">
         <v>79</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="5">
         <v>19.7</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>389</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>468</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>2599</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>2079</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>9.26</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>17.940000000000001</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>520</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <v>15.92</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
         <v>35.090000000000003</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="5">
         <v>20</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <v>58</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="5">
         <v>17.2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>77</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>388</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>2575</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>1949</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <v>8.68</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <v>8.68</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>626</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="5">
         <v>19.170000000000002</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
         <v>19.170000000000002</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="5">
         <v>24.3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="5">
         <v>45</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="5">
         <v>10.5</v>
       </c>
     </row>
